--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1597.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1597.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.345478994441003</v>
+        <v>0.6104469299316406</v>
       </c>
       <c r="B1">
-        <v>3.388095746300132</v>
+        <v>2.796266317367554</v>
       </c>
       <c r="C1">
-        <v>5.182962572966984</v>
+        <v>6.363174438476562</v>
       </c>
       <c r="D1">
-        <v>1.638174365248404</v>
+        <v>1.78946053981781</v>
       </c>
       <c r="E1">
-        <v>0.8995085296182118</v>
+        <v>1.572123527526855</v>
       </c>
     </row>
   </sheetData>
